--- a/data/trans_orig/P78_n_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78_n_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16EDDDD3-8CD3-47B0-A745-379256446877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D792C6B2-F045-4A6A-BEC1-038DE9097DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C7EEE46-C4EE-438E-8267-EDDECFE2C0FC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{071A5027-9D93-448D-9DD7-37C2E7F2DF6C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="137">
   <si>
     <t>Población con más de dos retrasos en pagos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,13 +80,10 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -95,37 +92,13 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>99,86%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -143,27 +116,15 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
@@ -197,28 +158,10 @@
     <t>Población con más de dos retrasos en pagos en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -236,34 +179,10 @@
     <t>Población con más de dos retrasos en pagos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>0,26%</t>
@@ -281,298 +200,256 @@
     <t>Población con más de dos retrasos en pagos en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>96,49%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
   </si>
 </sst>
 </file>
@@ -984,8 +861,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDED79F1-4103-43D9-8698-03289643D834}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7B7C16-5058-414F-8A3D-1C0F41DD3118}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1129,7 +1006,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1144,58 +1021,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>683</v>
+      </c>
+      <c r="D5" s="7">
+        <v>694012</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
-        <v>105</v>
-      </c>
-      <c r="D5" s="7">
-        <v>115358</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="7">
+        <v>696</v>
+      </c>
+      <c r="I5" s="7">
+        <v>688351</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1379</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1382363</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7">
-        <v>128</v>
-      </c>
-      <c r="I5" s="7">
-        <v>112755</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>233</v>
-      </c>
-      <c r="N5" s="7">
-        <v>228113</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1204,54 +1081,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1269,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1284,7 +1161,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1299,58 +1176,58 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>896</v>
+      </c>
+      <c r="D8" s="7">
+        <v>961800</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
-        <v>578</v>
-      </c>
-      <c r="D8" s="7">
-        <v>578654</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I8" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N8" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1359,54 +1236,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1424,7 +1301,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1439,7 +1316,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1454,58 +1331,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7">
+        <v>641</v>
+      </c>
+      <c r="D11" s="7">
+        <v>678509</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
-        <v>896</v>
-      </c>
-      <c r="D11" s="7">
-        <v>961800</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="7">
+        <v>696</v>
+      </c>
+      <c r="I11" s="7">
+        <v>683841</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1362350</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="7">
-        <v>908</v>
-      </c>
-      <c r="I11" s="7">
-        <v>968393</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1804</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1930193</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1514,54 +1391,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1579,7 +1456,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1594,7 +1471,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1609,58 +1486,58 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
+        <v>994</v>
+      </c>
+      <c r="D14" s="7">
+        <v>942222</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7">
-        <v>641</v>
-      </c>
-      <c r="D14" s="7">
-        <v>678509</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I14" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N14" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1669,54 +1546,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1734,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1749,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1764,58 +1641,58 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
-        <v>994</v>
-      </c>
-      <c r="D17" s="7">
-        <v>942222</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I17" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N17" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,217 +1701,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
+      <c r="A19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2047,8 +1768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75783727-EAB6-4EA1-B60E-A00A3495C42D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884A7656-E549-42B6-972B-A81951F43216}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2064,7 +1785,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2177,7 +1898,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2192,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2207,58 +1928,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>674</v>
+      </c>
+      <c r="D5" s="7">
+        <v>703469</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
-        <v>122</v>
-      </c>
-      <c r="D5" s="7">
-        <v>115765</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="G5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="7">
+        <v>650</v>
+      </c>
+      <c r="I5" s="7">
+        <v>697050</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1324</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1400519</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7">
-        <v>99</v>
-      </c>
-      <c r="I5" s="7">
-        <v>111905</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>221</v>
-      </c>
-      <c r="N5" s="7">
-        <v>227670</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,54 +1988,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2332,7 +2053,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2347,7 +2068,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2362,58 +2083,58 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>936</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1017947</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
-        <v>552</v>
-      </c>
-      <c r="D8" s="7">
-        <v>587704</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I8" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N8" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,54 +2143,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2487,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2502,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2517,58 +2238,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7">
+        <v>689</v>
+      </c>
+      <c r="D11" s="7">
+        <v>757623</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
-        <v>936</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1017947</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="7">
+        <v>705</v>
+      </c>
+      <c r="I11" s="7">
+        <v>777174</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1394</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1534797</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="7">
-        <v>940</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1032184</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1876</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2050131</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,54 +2298,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2642,7 +2363,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2657,7 +2378,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2672,58 +2393,58 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
+        <v>910</v>
+      </c>
+      <c r="D14" s="7">
+        <v>947739</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7">
-        <v>689</v>
-      </c>
-      <c r="D14" s="7">
-        <v>757623</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I14" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N14" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,54 +2453,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2797,7 +2518,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2812,7 +2533,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2827,58 +2548,58 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
-        <v>910</v>
-      </c>
-      <c r="D17" s="7">
-        <v>947739</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I17" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N17" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,217 +2608,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
+      <c r="A19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3110,8 +2675,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B48A5DA-FDBC-4116-A92A-1B43958E05A0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE5FF82-FD5E-4574-80DF-1A6E780346CF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3127,7 +2692,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3240,7 +2805,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3255,7 +2820,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3270,58 +2835,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>652</v>
+      </c>
+      <c r="D5" s="7">
+        <v>674800</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
-        <v>113</v>
-      </c>
-      <c r="D5" s="7">
-        <v>116546</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I5" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N5" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,54 +2895,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3395,7 +2960,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3410,7 +2975,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3425,58 +2990,58 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>951</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1022431</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
-        <v>539</v>
-      </c>
-      <c r="D8" s="7">
-        <v>558254</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I8" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N8" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,54 +3050,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3550,7 +3115,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3565,7 +3130,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3580,58 +3145,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7">
+        <v>696</v>
+      </c>
+      <c r="D11" s="7">
+        <v>759552</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
-        <v>951</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1022431</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I11" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N11" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,54 +3205,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3705,7 +3270,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3720,7 +3285,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3735,58 +3300,58 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
+        <v>932</v>
+      </c>
+      <c r="D14" s="7">
+        <v>937567</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7">
-        <v>696</v>
-      </c>
-      <c r="D14" s="7">
-        <v>759552</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I14" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N14" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,54 +3360,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3860,7 +3425,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3875,7 +3440,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3890,58 +3455,58 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3231</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3394350</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
-        <v>932</v>
-      </c>
-      <c r="D17" s="7">
-        <v>937567</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I17" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N17" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,217 +3515,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
+      <c r="A19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4173,8 +3582,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81E800C-743C-452E-832E-9545A35D718B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2968F0-B50E-4A58-9C65-DB16C9C8EF92}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4190,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4291,100 +3700,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>910</v>
+        <v>21052</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>2924</v>
+        <v>19597</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>3834</v>
+        <v>40648</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>116</v>
+        <v>705</v>
       </c>
       <c r="D5" s="7">
-        <v>101072</v>
+        <v>614389</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H5" s="7">
-        <v>239</v>
+        <v>1212</v>
       </c>
       <c r="I5" s="7">
-        <v>127809</v>
+        <v>705733</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="M5" s="7">
-        <v>355</v>
+        <v>1917</v>
       </c>
       <c r="N5" s="7">
-        <v>228881</v>
+        <v>1320124</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,153 +3802,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>24053</v>
+        <v>36029</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I7" s="7">
-        <v>19139</v>
+        <v>41809</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="N7" s="7">
-        <v>43191</v>
+        <v>77838</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>589</v>
+        <v>927</v>
       </c>
       <c r="D8" s="7">
-        <v>525770</v>
+        <v>1156835</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="H8" s="7">
-        <v>973</v>
+        <v>1452</v>
       </c>
       <c r="I8" s="7">
-        <v>600828</v>
+        <v>916842</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
-        <v>1562</v>
+        <v>2379</v>
       </c>
       <c r="N8" s="7">
-        <v>1126599</v>
+        <v>2073678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,153 +3957,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>40223</v>
+        <v>28115</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I10" s="7">
-        <v>47846</v>
+        <v>28175</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="N10" s="7">
-        <v>88069</v>
+        <v>56291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>927</v>
+        <v>651</v>
       </c>
       <c r="D11" s="7">
-        <v>999025</v>
+        <v>676565</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H11" s="7">
-        <v>1452</v>
+        <v>1012</v>
       </c>
       <c r="I11" s="7">
-        <v>1012233</v>
+        <v>905191</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="M11" s="7">
-        <v>2379</v>
+        <v>1663</v>
       </c>
       <c r="N11" s="7">
-        <v>2011258</v>
+        <v>1581755</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,153 +4112,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>30508</v>
+        <v>40899</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I13" s="7">
-        <v>29689</v>
+        <v>40764</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="N13" s="7">
-        <v>60198</v>
+        <v>81663</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>651</v>
+        <v>956</v>
       </c>
       <c r="D14" s="7">
-        <v>698264</v>
+        <v>885932</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H14" s="7">
-        <v>1012</v>
+        <v>1501</v>
       </c>
       <c r="I14" s="7">
-        <v>844682</v>
+        <v>1054168</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="M14" s="7">
-        <v>1663</v>
+        <v>2457</v>
       </c>
       <c r="N14" s="7">
-        <v>1542944</v>
+        <v>1940100</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,153 +4267,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="D16" s="7">
-        <v>46193</v>
+        <v>126095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="H16" s="7">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="I16" s="7">
-        <v>47660</v>
+        <v>130345</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="M16" s="7">
-        <v>111</v>
+        <v>327</v>
       </c>
       <c r="N16" s="7">
-        <v>93853</v>
+        <v>256440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>956</v>
+        <v>3239</v>
       </c>
       <c r="D17" s="7">
-        <v>919210</v>
+        <v>3333722</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="H17" s="7">
-        <v>1501</v>
+        <v>5177</v>
       </c>
       <c r="I17" s="7">
-        <v>1102772</v>
+        <v>3581935</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
-        <v>2457</v>
+        <v>8416</v>
       </c>
       <c r="N17" s="7">
-        <v>2021982</v>
+        <v>6915657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,217 +4422,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>137</v>
-      </c>
-      <c r="D19" s="7">
-        <v>141887</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="7">
-        <v>190</v>
-      </c>
-      <c r="I19" s="7">
-        <v>147258</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" s="7">
-        <v>327</v>
-      </c>
-      <c r="N19" s="7">
-        <v>289145</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3239</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3243341</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5177</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3688323</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8416</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6931664</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
+      <c r="A19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
